--- a/financial_report.xlsx
+++ b/financial_report.xlsx
@@ -435,7 +435,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>144 077.97</t>
+          <t>1 573 146.52</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>94 013.28</t>
+          <t>1 095 237.92</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>50 064.69</t>
+          <t>477 908.60</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,119 +506,131 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
     <col width="21" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="16" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
     <col width="13" customWidth="1" min="14" max="14"/>
-    <col width="16" customWidth="1" min="15" max="15"/>
-    <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="15" max="15"/>
+    <col width="16" customWidth="1" min="16" max="16"/>
     <col width="10" customWidth="1" min="17" max="17"/>
     <col width="10" customWidth="1" min="18" max="18"/>
-    <col width="9" customWidth="1" min="19" max="19"/>
+    <col width="10" customWidth="1" min="19" max="19"/>
     <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="21" max="21"/>
+    <col width="10" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Другое</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Дом, квартира / Ипотека</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Зарплата / Работа</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Зарплата / Доп. работа</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Крупняк</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Продукты</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Дом, квартира / Ипотека</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Другое</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Дом, квартира</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Спорт/здоровье</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Еда на заказ</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Дом, квартира / ЖКХ</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Отдых</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Инвестиции</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Хоз. Товары</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Подписки</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Здоровье, #Ира</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Авто</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Подарки</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Кэшбэк</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Отдых</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Еда на заказ</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Авто</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Дом, квартира / ЖКХ</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Подарки</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Здоровье, #Ира</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Хоз. Товары</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Спорт/здоровье</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Проезд</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Интернет</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Подписки</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Телефон</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Здоровье</t>
         </is>
@@ -627,37 +639,37 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Расходы</t>
+          <t>Доходы</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>98 499.49</t>
+          <t>1 400 000.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>34 482.39</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>114 125.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>51 675.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>200.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7 896.09</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -687,7 +699,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>6 267.24</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -717,10 +729,20 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1 078.00</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
@@ -729,102 +751,112 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Доходы</t>
+          <t>Расходы</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>14 593.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>942 109.08</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29 710.36</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>16 622.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8 114.00</t>
+          <t>48 800.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>25 326.62</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5 925.29</t>
+          <t>12 799.00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5 052.00</t>
+          <t>10 036.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>4 866.78</t>
+          <t>8 549.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>4 851.04</t>
+          <t>7 308.11</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>4 465.98</t>
+          <t>6 927.60</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4 196.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3 107.83</t>
+          <t>5 820.41</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1 800.00</t>
+          <t>3 364.00</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1 046.00</t>
+          <t>3 019.01</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
+          <t>3 011.17</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2 573.92</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>433.00</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>398.00</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>300.00</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>125.00</t>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>305.00</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>263.00</t>
         </is>
       </c>
     </row>
@@ -836,97 +868,107 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>98 499.49</t>
+          <t>1 414 593.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>34 482.39</t>
+          <t>942 109.08</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29 710.36</t>
+          <t>114 125.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16 622.00</t>
+          <t>51 675.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8 314.00</t>
+          <t>48 800.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7 896.09</t>
+          <t>25 326.62</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5 925.29</t>
+          <t>12 799.00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5 052.00</t>
+          <t>10 036.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4 866.78</t>
+          <t>8 549.00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4 851.04</t>
+          <t>7 308.11</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>4 465.98</t>
+          <t>6 927.60</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>4 196.00</t>
+          <t>6 267.24</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>3 107.83</t>
+          <t>5 820.41</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1 800.00</t>
+          <t>3 364.00</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1 046.00</t>
+          <t>3 019.01</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
+          <t>3 011.17</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>2 573.92</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>1 078.00</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>433.00</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>398.00</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>300.00</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>125.00</t>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>305.00</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>263.00</t>
         </is>
       </c>
     </row>

--- a/financial_report.xlsx
+++ b/financial_report.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Итог" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Категории" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Категории" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,77 +425,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Тип</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Значения</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Доходы</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1 573 146.52</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Расходы</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1 095 237.92</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Итого</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>477 908.60</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -506,133 +434,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
     <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="11" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="21" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="12" customWidth="1" min="13" max="13"/>
-    <col width="13" customWidth="1" min="14" max="14"/>
-    <col width="10" customWidth="1" min="15" max="15"/>
-    <col width="16" customWidth="1" min="16" max="16"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
     <col width="10" customWidth="1" min="17" max="17"/>
-    <col width="10" customWidth="1" min="18" max="18"/>
-    <col width="10" customWidth="1" min="19" max="19"/>
-    <col width="10" customWidth="1" min="20" max="20"/>
-    <col width="9" customWidth="1" min="21" max="21"/>
-    <col width="10" customWidth="1" min="22" max="22"/>
+    <col width="9" customWidth="1" min="18" max="18"/>
+    <col width="9" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="10" customWidth="1" min="21" max="21"/>
+    <col width="9" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Другое+</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Дом, квартира / Ипотека</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Зарплата / Работа</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Зарплата / Доп. работа</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Крупняк</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Другое</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Дом, квартира / Ипотека</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Зарплата / Работа</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Зарплата / Доп. работа</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Крупняк</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Продукты</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Дом, квартира</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Спорт/здоровье</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Еда на заказ</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Дом, квартира / ЖКХ</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Отдых</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Инвестиции</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Хоз. Товары</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Подписки</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Здоровье, #Ира</t>
-        </is>
-      </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Здоровье</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>Авто</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Подарки</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Кэшбэк</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Интернет</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Телефон</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Здоровье</t>
         </is>
       </c>
     </row>
@@ -642,110 +570,68 @@
           <t>Доходы</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1 400 000.00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>114 125.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>51 675.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>6 267.24</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>1 078.00</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>114125.31</v>
+      </c>
+      <c r="E2" t="n">
+        <v>51675.97</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6267.24</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1078</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -754,110 +640,68 @@
           <t>Расходы</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>14 593.00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>942 109.08</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>48 800.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>25 326.62</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>12 799.00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10 036.00</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>8 549.00</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>7 308.11</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>6 927.60</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>5 820.41</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>3 364.00</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>3 019.01</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>3 011.17</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>2 573.92</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>433.00</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>305.00</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>263.00</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>942109.08</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>48800</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25326.62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14593</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12799</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10036</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8549</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7308.110000000001</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6927.6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5820.41</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3364</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3282.01</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3011.17</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2573.92</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>433</v>
+      </c>
+      <c r="V3" t="n">
+        <v>305</v>
       </c>
     </row>
     <row r="4">
@@ -866,110 +710,68 @@
           <t>Итого</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1 414 593.00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>942 109.08</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>114 125.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>51 675.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>48 800.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>25 326.62</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>12 799.00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>10 036.00</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>8 549.00</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>7 308.11</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>6 927.60</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>6 267.24</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>5 820.41</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>3 364.00</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>3 019.01</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>3 011.17</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>2 573.92</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>1 078.00</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>433.00</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>305.00</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>263.00</t>
-        </is>
+      <c r="B4" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>942109.08</v>
+      </c>
+      <c r="D4" t="n">
+        <v>114125.31</v>
+      </c>
+      <c r="E4" t="n">
+        <v>51675.97</v>
+      </c>
+      <c r="F4" t="n">
+        <v>48800</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25326.62</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14593</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12799</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10036</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8549</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7308.110000000001</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6927.6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6267.24</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5820.41</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3364</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3282.01</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3011.17</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2573.92</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1078</v>
+      </c>
+      <c r="U4" t="n">
+        <v>433</v>
+      </c>
+      <c r="V4" t="n">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/financial_report.xlsx
+++ b/financial_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:AN4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,133 +434,141 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="21" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="13" customWidth="1" min="15" max="15"/>
-    <col width="10" customWidth="1" min="16" max="16"/>
-    <col width="10" customWidth="1" min="17" max="17"/>
-    <col width="9" customWidth="1" min="18" max="18"/>
-    <col width="9" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="10" customWidth="1" min="21" max="21"/>
-    <col width="9" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="18" max="18"/>
+    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="13" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="10" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="10" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="9" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="9" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="35" max="35"/>
+    <col width="9" customWidth="1" min="36" max="36"/>
+    <col width="6" customWidth="1" min="37" max="37"/>
+    <col width="8" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="9" customWidth="1" min="40" max="40"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Зарплата / Работа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Зарплата / Доп. работа</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Другое+</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Дом, квартира / Ипотека</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Зарплата / Работа</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Зарплата / Доп. работа</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Проезд</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Еда на заказ</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Здоровье</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Дом, квартира</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Интернет</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Телефон</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Хоз. Товары</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Отдых</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Спорт/здоровье</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Подписки</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Подарки</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Другое</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Авто</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Отпуск</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Крупняк</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Продукты</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Другое</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Дом, квартира</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Спорт/здоровье</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Еда на заказ</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Дом, квартира / ЖКХ</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Отдых</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Инвестиции</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Хоз. Товары</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Подписки</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Здоровье</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Авто</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Подарки</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Кэшбэк</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Интернет</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Телефон</t>
         </is>
       </c>
     </row>
@@ -571,66 +579,60 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1400000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
+        <v>114125.31</v>
       </c>
       <c r="D2" t="n">
-        <v>114125.31</v>
-      </c>
-      <c r="E2" t="n">
         <v>51675.97</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
+        <v>7345.24</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>6267.24</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
-        <v>1078</v>
-      </c>
-      <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -643,65 +645,59 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>942109.08</v>
-      </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8549</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3282.01</v>
+      </c>
+      <c r="P3" t="n">
+        <v>28729.11</v>
+      </c>
+      <c r="R3" t="n">
+        <v>433</v>
+      </c>
+      <c r="T3" t="n">
+        <v>305</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5820.41</v>
+      </c>
+      <c r="X3" t="n">
+        <v>25326.62</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>6927.6</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>10036</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3364</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2573.92</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>14593</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3011.17</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>48800</v>
-      </c>
-      <c r="G3" t="n">
-        <v>25326.62</v>
-      </c>
-      <c r="H3" t="n">
-        <v>14593</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12799</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10036</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8549</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7308.110000000001</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6927.6</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5820.41</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3364</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3282.01</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3011.17</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2573.92</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>433</v>
-      </c>
-      <c r="V3" t="n">
-        <v>305</v>
       </c>
     </row>
     <row r="4">
@@ -711,67 +707,61 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1400000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>942109.08</v>
+        <v>114125.31</v>
       </c>
       <c r="D4" t="n">
-        <v>114125.31</v>
-      </c>
-      <c r="E4" t="n">
         <v>51675.97</v>
       </c>
       <c r="F4" t="n">
+        <v>7345.24</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8549</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3282.01</v>
+      </c>
+      <c r="P4" t="n">
+        <v>28729.11</v>
+      </c>
+      <c r="R4" t="n">
+        <v>433</v>
+      </c>
+      <c r="T4" t="n">
+        <v>305</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5820.41</v>
+      </c>
+      <c r="X4" t="n">
+        <v>25326.62</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>6927.6</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10036</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3364</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2573.92</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>14593</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>3011.17</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
         <v>48800</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25326.62</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14593</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12799</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10036</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8549</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7308.110000000001</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6927.6</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6267.24</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5820.41</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3364</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3282.01</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3011.17</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2573.92</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1078</v>
-      </c>
-      <c r="U4" t="n">
-        <v>433</v>
-      </c>
-      <c r="V4" t="n">
-        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/financial_report.xlsx
+++ b/financial_report.xlsx
@@ -438,7 +438,7 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -458,15 +458,15 @@
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="10" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="10" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="10" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="9" customWidth="1" min="32" max="32"/>
+    <col width="10" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="9" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
     <col width="6" customWidth="1" min="35" max="35"/>
     <col width="9" customWidth="1" min="36" max="36"/>
     <col width="6" customWidth="1" min="37" max="37"/>
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114125.31</v>
+        <v>118105.32</v>
       </c>
       <c r="D2" t="n">
-        <v>51675.97</v>
+        <v>85699.38</v>
       </c>
       <c r="F2" t="n">
-        <v>7345.24</v>
+        <v>25921.94</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -652,52 +652,52 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L3" t="n">
-        <v>8549</v>
+        <v>1000</v>
       </c>
       <c r="N3" t="n">
-        <v>3282.01</v>
+        <v>2390</v>
       </c>
       <c r="P3" t="n">
-        <v>28729.11</v>
+        <v>15047.59</v>
       </c>
       <c r="R3" t="n">
-        <v>433</v>
+        <v>86.69</v>
       </c>
       <c r="T3" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="V3" t="n">
-        <v>5820.41</v>
+        <v>13148.66</v>
       </c>
       <c r="X3" t="n">
-        <v>25326.62</v>
+        <v>42676.64</v>
       </c>
       <c r="Z3" t="n">
-        <v>6927.6</v>
+        <v>15477.77</v>
       </c>
       <c r="AB3" t="n">
-        <v>10036</v>
+        <v>869</v>
       </c>
       <c r="AD3" t="n">
-        <v>3364</v>
+        <v>398</v>
       </c>
       <c r="AF3" t="n">
-        <v>2573.92</v>
+        <v>91306.69</v>
       </c>
       <c r="AH3" t="n">
-        <v>14593</v>
+        <v>6363</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3011.17</v>
+        <v>5315.99</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>48800</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="4">
@@ -707,61 +707,61 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114125.31</v>
+        <v>118105.32</v>
       </c>
       <c r="D4" t="n">
-        <v>51675.97</v>
+        <v>85699.38</v>
       </c>
       <c r="F4" t="n">
-        <v>7345.24</v>
+        <v>25921.94</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L4" t="n">
-        <v>8549</v>
+        <v>1000</v>
       </c>
       <c r="N4" t="n">
-        <v>3282.01</v>
+        <v>2390</v>
       </c>
       <c r="P4" t="n">
-        <v>28729.11</v>
+        <v>15047.59</v>
       </c>
       <c r="R4" t="n">
-        <v>433</v>
+        <v>86.69</v>
       </c>
       <c r="T4" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="V4" t="n">
-        <v>5820.41</v>
+        <v>13148.66</v>
       </c>
       <c r="X4" t="n">
-        <v>25326.62</v>
+        <v>42676.64</v>
       </c>
       <c r="Z4" t="n">
-        <v>6927.6</v>
+        <v>15477.77</v>
       </c>
       <c r="AB4" t="n">
-        <v>10036</v>
+        <v>869</v>
       </c>
       <c r="AD4" t="n">
-        <v>3364</v>
+        <v>398</v>
       </c>
       <c r="AF4" t="n">
-        <v>2573.92</v>
+        <v>91306.69</v>
       </c>
       <c r="AH4" t="n">
-        <v>14593</v>
+        <v>6363</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3011.17</v>
+        <v>5315.99</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>48800</v>
+        <v>14000</v>
       </c>
     </row>
   </sheetData>

--- a/financial_report.xlsx
+++ b/financial_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN4"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
@@ -446,33 +446,35 @@
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="10" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="13" customWidth="1" min="22" max="22"/>
+    <col width="9" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="10" customWidth="1" min="24" max="24"/>
+    <col width="13" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="10" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="9" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="10" customWidth="1" min="30" max="30"/>
+    <col width="16" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="10" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="10" customWidth="1" min="34" max="34"/>
     <col width="6" customWidth="1" min="35" max="35"/>
-    <col width="9" customWidth="1" min="36" max="36"/>
+    <col width="8" customWidth="1" min="36" max="36"/>
     <col width="6" customWidth="1" min="37" max="37"/>
-    <col width="8" customWidth="1" min="38" max="38"/>
+    <col width="9" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="9" customWidth="1" min="40" max="40"/>
+    <col width="8" customWidth="1" min="40" max="40"/>
+    <col width="6" customWidth="1" min="41" max="41"/>
+    <col width="9" customWidth="1" min="42" max="42"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -508,65 +510,70 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Малыш</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>Дом, квартира</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Интернет</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Телефон</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Хоз. Товары</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Продукты</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Отдых</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Спорт/здоровье</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Подписки</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Подарки</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Другое</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Авто</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Отпуск</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Крупняк</t>
         </is>
@@ -579,13 +586,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118105.32</v>
+        <v>137725.5</v>
       </c>
       <c r="D2" t="n">
-        <v>85699.38</v>
+        <v>46109.09</v>
       </c>
       <c r="F2" t="n">
-        <v>25921.94</v>
+        <v>21263.36</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -633,6 +640,9 @@
         <v>0</v>
       </c>
       <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -652,52 +662,55 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>78</v>
+        <v>820</v>
       </c>
       <c r="L3" t="n">
-        <v>1000</v>
+        <v>5678</v>
       </c>
       <c r="N3" t="n">
-        <v>2390</v>
+        <v>1745.18</v>
       </c>
       <c r="P3" t="n">
-        <v>15047.59</v>
+        <v>3785.1</v>
       </c>
       <c r="R3" t="n">
-        <v>86.69</v>
+        <v>5302.15</v>
       </c>
       <c r="T3" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="V3" t="n">
-        <v>13148.66</v>
+        <v>457</v>
       </c>
       <c r="X3" t="n">
-        <v>42676.64</v>
+        <v>6416.26</v>
       </c>
       <c r="Z3" t="n">
-        <v>15477.77</v>
+        <v>25023.52</v>
       </c>
       <c r="AB3" t="n">
-        <v>869</v>
+        <v>14339</v>
       </c>
       <c r="AD3" t="n">
-        <v>398</v>
+        <v>10487</v>
       </c>
       <c r="AF3" t="n">
-        <v>91306.69</v>
+        <v>1138</v>
       </c>
       <c r="AH3" t="n">
-        <v>6363</v>
+        <v>10039.91</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5315.99</v>
+        <v>5159</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>3736.05</v>
       </c>
       <c r="AN3" t="n">
-        <v>14000</v>
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -707,61 +720,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118105.32</v>
+        <v>137725.5</v>
       </c>
       <c r="D4" t="n">
-        <v>85699.38</v>
+        <v>46109.09</v>
       </c>
       <c r="F4" t="n">
-        <v>25921.94</v>
+        <v>21263.36</v>
       </c>
       <c r="J4" t="n">
-        <v>78</v>
+        <v>820</v>
       </c>
       <c r="L4" t="n">
-        <v>1000</v>
+        <v>5678</v>
       </c>
       <c r="N4" t="n">
-        <v>2390</v>
+        <v>1745.18</v>
       </c>
       <c r="P4" t="n">
-        <v>15047.59</v>
+        <v>3785.1</v>
       </c>
       <c r="R4" t="n">
-        <v>86.69</v>
+        <v>5302.15</v>
       </c>
       <c r="T4" t="n">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="V4" t="n">
-        <v>13148.66</v>
+        <v>457</v>
       </c>
       <c r="X4" t="n">
-        <v>42676.64</v>
+        <v>6416.26</v>
       </c>
       <c r="Z4" t="n">
-        <v>15477.77</v>
+        <v>25023.52</v>
       </c>
       <c r="AB4" t="n">
-        <v>869</v>
+        <v>14339</v>
       </c>
       <c r="AD4" t="n">
-        <v>398</v>
+        <v>10487</v>
       </c>
       <c r="AF4" t="n">
-        <v>91306.69</v>
+        <v>1138</v>
       </c>
       <c r="AH4" t="n">
-        <v>6363</v>
+        <v>10039.91</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5315.99</v>
+        <v>5159</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>3736.05</v>
       </c>
       <c r="AN4" t="n">
-        <v>14000</v>
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/financial_report.xlsx
+++ b/financial_report.xlsx
@@ -446,9 +446,9 @@
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="9" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="15" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
@@ -468,7 +468,7 @@
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="10" customWidth="1" min="34" max="34"/>
     <col width="6" customWidth="1" min="35" max="35"/>
-    <col width="8" customWidth="1" min="36" max="36"/>
+    <col width="10" customWidth="1" min="36" max="36"/>
     <col width="6" customWidth="1" min="37" max="37"/>
     <col width="9" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>137725.5</v>
+        <v>141074.5</v>
       </c>
       <c r="D2" t="n">
-        <v>46109.09</v>
+        <v>39407.21</v>
       </c>
       <c r="F2" t="n">
-        <v>21263.36</v>
+        <v>55198.21</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -662,55 +662,55 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5678</v>
+        <v>6476</v>
       </c>
       <c r="N3" t="n">
-        <v>1745.18</v>
+        <v>1454</v>
       </c>
       <c r="P3" t="n">
-        <v>3785.1</v>
+        <v>6534.62</v>
       </c>
       <c r="R3" t="n">
-        <v>5302.15</v>
+        <v>6119.09</v>
       </c>
       <c r="T3" t="n">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="V3" t="n">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="X3" t="n">
-        <v>6416.26</v>
+        <v>4598.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>25023.52</v>
+        <v>46721.39</v>
       </c>
       <c r="AB3" t="n">
-        <v>14339</v>
+        <v>9280.639999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>10487</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1138</v>
+        <v>2438</v>
       </c>
       <c r="AH3" t="n">
-        <v>10039.91</v>
+        <v>10641.97</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5159</v>
+        <v>21823.78</v>
       </c>
       <c r="AL3" t="n">
-        <v>3736.05</v>
+        <v>4528.92</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>38500</v>
       </c>
     </row>
     <row r="4">
@@ -720,64 +720,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137725.5</v>
+        <v>141074.5</v>
       </c>
       <c r="D4" t="n">
-        <v>46109.09</v>
+        <v>39407.21</v>
       </c>
       <c r="F4" t="n">
-        <v>21263.36</v>
+        <v>55198.21</v>
       </c>
       <c r="J4" t="n">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5678</v>
+        <v>6476</v>
       </c>
       <c r="N4" t="n">
-        <v>1745.18</v>
+        <v>1454</v>
       </c>
       <c r="P4" t="n">
-        <v>3785.1</v>
+        <v>6534.62</v>
       </c>
       <c r="R4" t="n">
-        <v>5302.15</v>
+        <v>6119.09</v>
       </c>
       <c r="T4" t="n">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="V4" t="n">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="X4" t="n">
-        <v>6416.26</v>
+        <v>4598.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>25023.52</v>
+        <v>46721.39</v>
       </c>
       <c r="AB4" t="n">
-        <v>14339</v>
+        <v>9280.639999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>10487</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>1138</v>
+        <v>2438</v>
       </c>
       <c r="AH4" t="n">
-        <v>10039.91</v>
+        <v>10641.97</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5159</v>
+        <v>21823.78</v>
       </c>
       <c r="AL4" t="n">
-        <v>3736.05</v>
+        <v>4528.92</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>38500</v>
       </c>
     </row>
   </sheetData>

--- a/financial_report.xlsx
+++ b/financial_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AR4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,31 +450,33 @@
     <col width="6" customWidth="1" min="15" max="15"/>
     <col width="9" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="9" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="9" customWidth="1" min="22" max="22"/>
+    <col width="10" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="13" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="10" customWidth="1" min="26" max="26"/>
+    <col width="13" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="9" customWidth="1" min="28" max="28"/>
+    <col width="10" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="16" customWidth="1" min="30" max="30"/>
+    <col width="10" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="10" customWidth="1" min="32" max="32"/>
+    <col width="16" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="10" customWidth="1" min="34" max="34"/>
     <col width="6" customWidth="1" min="35" max="35"/>
-    <col width="10" customWidth="1" min="36" max="36"/>
+    <col width="9" customWidth="1" min="36" max="36"/>
     <col width="6" customWidth="1" min="37" max="37"/>
     <col width="9" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="8" customWidth="1" min="40" max="40"/>
+    <col width="9" customWidth="1" min="40" max="40"/>
     <col width="6" customWidth="1" min="41" max="41"/>
-    <col width="9" customWidth="1" min="42" max="42"/>
+    <col width="8" customWidth="1" min="42" max="42"/>
+    <col width="6" customWidth="1" min="43" max="43"/>
+    <col width="12" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -515,65 +517,70 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>Ира</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Дом, квартира</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Интернет</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Телефон</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Хоз. Товары</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Продукты</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Отдых</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Спорт/здоровье</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Подписки</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Подарки</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Другое</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Авто</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Отпуск</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Крупняк</t>
         </is>
@@ -586,13 +593,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141074.5</v>
+        <v>231373.65</v>
       </c>
       <c r="D2" t="n">
-        <v>39407.21</v>
+        <v>80126.13</v>
       </c>
       <c r="F2" t="n">
-        <v>55198.21</v>
+        <v>80615.89</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -643,6 +650,9 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -662,55 +672,58 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="L3" t="n">
-        <v>6476</v>
+        <v>10664.79</v>
       </c>
       <c r="N3" t="n">
-        <v>1454</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6534.62</v>
+        <v>15771.5</v>
       </c>
       <c r="R3" t="n">
-        <v>6119.09</v>
+        <v>11200</v>
       </c>
       <c r="T3" t="n">
+        <v>3996.26</v>
+      </c>
+      <c r="V3" t="n">
         <v>480</v>
       </c>
-      <c r="V3" t="n">
-        <v>440</v>
-      </c>
       <c r="X3" t="n">
-        <v>4598.6</v>
+        <v>640</v>
       </c>
       <c r="Z3" t="n">
-        <v>46721.39</v>
+        <v>4452.81</v>
       </c>
       <c r="AB3" t="n">
-        <v>9280.639999999999</v>
+        <v>32760.53</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>20482.56</v>
       </c>
       <c r="AF3" t="n">
-        <v>2438</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>10641.97</v>
+        <v>448</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21823.78</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>4528.92</v>
+        <v>17251.6</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>7112.43</v>
       </c>
       <c r="AP3" t="n">
-        <v>38500</v>
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1177357.91</v>
       </c>
     </row>
     <row r="4">
@@ -720,64 +733,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141074.5</v>
+        <v>231373.65</v>
       </c>
       <c r="D4" t="n">
-        <v>39407.21</v>
+        <v>80126.13</v>
       </c>
       <c r="F4" t="n">
-        <v>55198.21</v>
+        <v>80615.89</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="L4" t="n">
-        <v>6476</v>
+        <v>10664.79</v>
       </c>
       <c r="N4" t="n">
-        <v>1454</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6534.62</v>
+        <v>15771.5</v>
       </c>
       <c r="R4" t="n">
-        <v>6119.09</v>
+        <v>11200</v>
       </c>
       <c r="T4" t="n">
+        <v>3996.26</v>
+      </c>
+      <c r="V4" t="n">
         <v>480</v>
       </c>
-      <c r="V4" t="n">
-        <v>440</v>
-      </c>
       <c r="X4" t="n">
-        <v>4598.6</v>
+        <v>640</v>
       </c>
       <c r="Z4" t="n">
-        <v>46721.39</v>
+        <v>4452.81</v>
       </c>
       <c r="AB4" t="n">
-        <v>9280.639999999999</v>
+        <v>32760.53</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>20482.56</v>
       </c>
       <c r="AF4" t="n">
-        <v>2438</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>10641.97</v>
+        <v>448</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21823.78</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>4528.92</v>
+        <v>17251.6</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>7112.43</v>
       </c>
       <c r="AP4" t="n">
-        <v>38500</v>
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1177357.91</v>
       </c>
     </row>
   </sheetData>

--- a/financial_report.xlsx
+++ b/financial_report.xlsx
@@ -434,21 +434,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="9" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="9" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
@@ -470,13 +470,13 @@
     <col width="6" customWidth="1" min="35" max="35"/>
     <col width="9" customWidth="1" min="36" max="36"/>
     <col width="6" customWidth="1" min="37" max="37"/>
-    <col width="9" customWidth="1" min="38" max="38"/>
+    <col width="20" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="9" customWidth="1" min="40" max="40"/>
     <col width="6" customWidth="1" min="41" max="41"/>
     <col width="8" customWidth="1" min="42" max="42"/>
     <col width="6" customWidth="1" min="43" max="43"/>
-    <col width="12" customWidth="1" min="44" max="44"/>
+    <col width="10" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -593,13 +593,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>231373.65</v>
+        <v>128791.79</v>
       </c>
       <c r="D2" t="n">
-        <v>80126.13</v>
+        <v>43599.25</v>
       </c>
       <c r="F2" t="n">
-        <v>80615.89</v>
+        <v>20052</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -672,58 +672,58 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10664.79</v>
+        <v>4221.940000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7678</v>
       </c>
       <c r="P3" t="n">
-        <v>15771.5</v>
+        <v>7547.2</v>
       </c>
       <c r="R3" t="n">
-        <v>11200</v>
+        <v>10000</v>
       </c>
       <c r="T3" t="n">
-        <v>3996.26</v>
+        <v>40209.9</v>
       </c>
       <c r="V3" t="n">
         <v>480</v>
       </c>
       <c r="X3" t="n">
-        <v>640</v>
+        <v>350</v>
       </c>
       <c r="Z3" t="n">
-        <v>4452.81</v>
+        <v>8912.58</v>
       </c>
       <c r="AB3" t="n">
-        <v>32760.53</v>
+        <v>39616.52</v>
       </c>
       <c r="AD3" t="n">
-        <v>20482.56</v>
+        <v>12496.86</v>
       </c>
       <c r="AF3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>448</v>
+        <v>4943.05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>31800</v>
       </c>
       <c r="AL3" t="n">
-        <v>17251.6</v>
+        <v>10571.88</v>
       </c>
       <c r="AN3" t="n">
-        <v>7112.43</v>
+        <v>5995.18</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>1177357.91</v>
+        <v>950462</v>
       </c>
     </row>
     <row r="4">
@@ -733,67 +733,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>231373.65</v>
+        <v>128791.79</v>
       </c>
       <c r="D4" t="n">
-        <v>80126.13</v>
+        <v>43599.25</v>
       </c>
       <c r="F4" t="n">
-        <v>80615.89</v>
+        <v>20052</v>
       </c>
       <c r="J4" t="n">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10664.79</v>
+        <v>4221.940000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>7678</v>
       </c>
       <c r="P4" t="n">
-        <v>15771.5</v>
+        <v>7547.2</v>
       </c>
       <c r="R4" t="n">
-        <v>11200</v>
+        <v>10000</v>
       </c>
       <c r="T4" t="n">
-        <v>3996.26</v>
+        <v>40209.9</v>
       </c>
       <c r="V4" t="n">
         <v>480</v>
       </c>
       <c r="X4" t="n">
-        <v>640</v>
+        <v>350</v>
       </c>
       <c r="Z4" t="n">
-        <v>4452.81</v>
+        <v>8912.58</v>
       </c>
       <c r="AB4" t="n">
-        <v>32760.53</v>
+        <v>39616.52</v>
       </c>
       <c r="AD4" t="n">
-        <v>20482.56</v>
+        <v>12496.86</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>448</v>
+        <v>4943.05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>31800</v>
       </c>
       <c r="AL4" t="n">
-        <v>17251.6</v>
+        <v>10571.88</v>
       </c>
       <c r="AN4" t="n">
-        <v>7112.43</v>
+        <v>5995.18</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>1177357.91</v>
+        <v>950462</v>
       </c>
     </row>
   </sheetData>

--- a/financial_report.xlsx
+++ b/financial_report.xlsx
@@ -434,21 +434,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="8" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="9" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="9" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
@@ -462,15 +462,15 @@
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="10" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="10" customWidth="1" min="30" max="30"/>
+    <col width="20" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="16" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="10" customWidth="1" min="34" max="34"/>
     <col width="6" customWidth="1" min="35" max="35"/>
-    <col width="9" customWidth="1" min="36" max="36"/>
+    <col width="10" customWidth="1" min="36" max="36"/>
     <col width="6" customWidth="1" min="37" max="37"/>
-    <col width="20" customWidth="1" min="38" max="38"/>
+    <col width="9" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
     <col width="9" customWidth="1" min="40" max="40"/>
     <col width="6" customWidth="1" min="41" max="41"/>
@@ -593,13 +593,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>128791.79</v>
+        <v>196698.69</v>
       </c>
       <c r="D2" t="n">
-        <v>43599.25</v>
+        <v>33934.72</v>
       </c>
       <c r="F2" t="n">
-        <v>20052</v>
+        <v>43400.11</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -672,58 +672,58 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="L3" t="n">
-        <v>4221.940000000001</v>
+        <v>3374.96</v>
       </c>
       <c r="N3" t="n">
-        <v>7678</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7547.2</v>
+        <v>18448.4</v>
       </c>
       <c r="R3" t="n">
-        <v>10000</v>
+        <v>11509.5</v>
       </c>
       <c r="T3" t="n">
-        <v>40209.9</v>
+        <v>40217.86</v>
       </c>
       <c r="V3" t="n">
         <v>480</v>
       </c>
       <c r="X3" t="n">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Z3" t="n">
-        <v>8912.58</v>
+        <v>11700.11</v>
       </c>
       <c r="AB3" t="n">
-        <v>39616.52</v>
+        <v>37776.71</v>
       </c>
       <c r="AD3" t="n">
-        <v>12496.86</v>
+        <v>3787.07</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>9770</v>
       </c>
       <c r="AH3" t="n">
-        <v>4943.05</v>
+        <v>3541.98</v>
       </c>
       <c r="AJ3" t="n">
-        <v>31800</v>
+        <v>10664.91</v>
       </c>
       <c r="AL3" t="n">
-        <v>10571.88</v>
+        <v>16455</v>
       </c>
       <c r="AN3" t="n">
-        <v>5995.18</v>
+        <v>6959.09</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>950462</v>
+        <v>122658</v>
       </c>
     </row>
     <row r="4">
@@ -733,67 +733,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128791.79</v>
+        <v>196698.69</v>
       </c>
       <c r="D4" t="n">
-        <v>43599.25</v>
+        <v>33934.72</v>
       </c>
       <c r="F4" t="n">
-        <v>20052</v>
+        <v>43400.11</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="L4" t="n">
-        <v>4221.940000000001</v>
+        <v>3374.96</v>
       </c>
       <c r="N4" t="n">
-        <v>7678</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>7547.2</v>
+        <v>18448.4</v>
       </c>
       <c r="R4" t="n">
-        <v>10000</v>
+        <v>11509.5</v>
       </c>
       <c r="T4" t="n">
-        <v>40209.9</v>
+        <v>40217.86</v>
       </c>
       <c r="V4" t="n">
         <v>480</v>
       </c>
       <c r="X4" t="n">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Z4" t="n">
-        <v>8912.58</v>
+        <v>11700.11</v>
       </c>
       <c r="AB4" t="n">
-        <v>39616.52</v>
+        <v>37776.71</v>
       </c>
       <c r="AD4" t="n">
-        <v>12496.86</v>
+        <v>3787.07</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>9770</v>
       </c>
       <c r="AH4" t="n">
-        <v>4943.05</v>
+        <v>3541.98</v>
       </c>
       <c r="AJ4" t="n">
-        <v>31800</v>
+        <v>10664.91</v>
       </c>
       <c r="AL4" t="n">
-        <v>10571.88</v>
+        <v>16455</v>
       </c>
       <c r="AN4" t="n">
-        <v>5995.18</v>
+        <v>6959.09</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>950462</v>
+        <v>122658</v>
       </c>
     </row>
   </sheetData>
